--- a/ism_manufacturing_df.xlsx
+++ b/ism_manufacturing_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\VAR Nowcasts-Copy1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188AAD5D-5FB1-4129-8FC8-9E2D3F81A679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C4417-A959-4CF8-A5FF-23B7EF7481FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gen_Black_pD" xfId="1" xr:uid="{78400AE8-EE21-45C2-AC6B-6BB3CDD63142}"/>
@@ -394,13 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="B362" sqref="B362"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3298,7 +3302,48 @@
         <v>55.8</v>
       </c>
     </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B363" s="1">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B364" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B365" s="1">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B366" s="1">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B367" s="1">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ism_manufacturing_df.xlsx
+++ b/ism_manufacturing_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\VAR Nowcasts-Copy1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C4417-A959-4CF8-A5FF-23B7EF7481FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567D49C-6018-46BF-9384-D5B7615B76D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="B367" sqref="B367"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -3342,6 +3342,38 @@
         <v>54</v>
       </c>
     </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B368" s="1">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="3">
+        <v>45596</v>
+      </c>
+      <c r="B369" s="1">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B370" s="1">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B371" s="1">
+        <v>52.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
